--- a/build/web/csv/rightExcel - Copy.xlsx
+++ b/build/web/csv/rightExcel - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE1956-66E5-4C66-913C-4CE9D5C9DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09962991-E544-4974-99DA-6AAD573A6D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1470" windowWidth="19510" windowHeight="11430" xr2:uid="{0E1DD8BA-F8A4-4DBE-96AB-6B065B93F1A9}"/>
+    <workbookView xWindow="1300" yWindow="550" windowWidth="19510" windowHeight="11430" xr2:uid="{0E1DD8BA-F8A4-4DBE-96AB-6B065B93F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -54,15 +54,27 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Cau1A</t>
+  </si>
+  <si>
+    <t>Why the Sun is flat?</t>
+  </si>
+  <si>
     <t>Single</t>
   </si>
   <si>
     <t>a.Yes|space|b.No</t>
   </si>
   <si>
+    <t>100_0</t>
+  </si>
+  <si>
     <t>Multi</t>
   </si>
   <si>
+    <t>This is fourth one</t>
+  </si>
+  <si>
     <t>a.Why |space|b.Yes|space|c.No</t>
   </si>
   <si>
@@ -72,25 +84,7 @@
     <t>a.Why |space|b.Yes</t>
   </si>
   <si>
-    <t>50_50</t>
-  </si>
-  <si>
-    <t>multi</t>
-  </si>
-  <si>
-    <t>24_76</t>
-  </si>
-  <si>
-    <t>Cau2</t>
-  </si>
-  <si>
-    <t>Cau3</t>
-  </si>
-  <si>
-    <t>Cau4</t>
-  </si>
-  <si>
-    <t>5th</t>
+    <t>50_</t>
   </si>
 </sst>
 </file>
@@ -442,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB36215-23B0-43A2-B83B-7376305ABC5C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,82 +472,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
